--- a/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- Prodigal (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- Prodigal (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Batman</t>
   </si>
   <si>
@@ -73,6 +73,42 @@
     <t>Robin</t>
   </si>
   <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -82,34 +118,7 @@
     <t>Batman: Shadow of the Bat</t>
   </si>
   <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>681</t>
+    <t>DC Comics</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -124,7 +133,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-113132/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-39902/</t>
+    <t>https://comicvine.gamespot.com/robin-11-two-in-every-crowd/4000-39902/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-40020/</t>
@@ -136,7 +145,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-113133/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-40036/</t>
+    <t>https://comicvine.gamespot.com/robin-12-bullies/4000-40036/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-40261/</t>
@@ -148,10 +157,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-113143/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-40277/</t>
-  </si>
-  <si>
-    <t>DC Comics</t>
+    <t>https://comicvine.gamespot.com/robin-13-wings-over-gotham/4000-40277/</t>
   </si>
 </sst>
 </file>
@@ -584,17 +590,17 @@
       <c r="C2" s="2">
         <v>1940</v>
       </c>
-      <c r="D2" s="2">
-        <v>512</v>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3">
         <v>34639</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2">
         <v>796</v>
@@ -609,19 +615,19 @@
         <v>1940</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="4">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="4">
         <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -634,17 +640,17 @@
       <c r="C3" s="2">
         <v>1992</v>
       </c>
-      <c r="D3" s="2">
-        <v>32</v>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3">
         <v>34639</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2">
         <v>4724</v>
@@ -653,25 +659,25 @@
         <v>39990</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2">
         <v>1992</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="4">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="4">
         <v>0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -684,17 +690,17 @@
       <c r="C4" s="2">
         <v>1937</v>
       </c>
-      <c r="D4" s="2">
-        <v>679</v>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
         <v>34639</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2">
         <v>18058</v>
@@ -709,19 +715,19 @@
         <v>1937</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="4">
         <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -734,17 +740,17 @@
       <c r="C5" s="2">
         <v>1993</v>
       </c>
-      <c r="D5" s="2">
-        <v>11</v>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3">
         <v>34639</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2">
         <v>4975</v>
@@ -759,19 +765,19 @@
         <v>1993</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="4">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="4">
         <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -784,17 +790,17 @@
       <c r="C6" s="2">
         <v>1940</v>
       </c>
-      <c r="D6" s="2">
-        <v>513</v>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3">
         <v>34669</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>796</v>
@@ -809,19 +815,19 @@
         <v>1940</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="4">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="4">
         <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -834,17 +840,17 @@
       <c r="C7" s="2">
         <v>1992</v>
       </c>
-      <c r="D7" s="2">
-        <v>33</v>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3">
         <v>34669</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2">
         <v>4724</v>
@@ -853,25 +859,25 @@
         <v>40129</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2">
         <v>1992</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="4">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="4">
         <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -884,17 +890,17 @@
       <c r="C8" s="2">
         <v>1937</v>
       </c>
-      <c r="D8" s="2">
-        <v>680</v>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3">
         <v>34669</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2">
         <v>18058</v>
@@ -909,19 +915,19 @@
         <v>1937</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="4">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="4">
         <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -934,17 +940,17 @@
       <c r="C9" s="2">
         <v>1993</v>
       </c>
-      <c r="D9" s="2">
-        <v>12</v>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3">
         <v>34669</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2">
         <v>4975</v>
@@ -959,19 +965,19 @@
         <v>1993</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="4">
+        <v>35</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="4">
         <v>31</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -984,17 +990,17 @@
       <c r="C10" s="2">
         <v>1940</v>
       </c>
-      <c r="D10" s="2">
-        <v>514</v>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3">
         <v>34700</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2">
         <v>796</v>
@@ -1009,19 +1015,19 @@
         <v>1940</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="4">
+        <v>35</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="4">
         <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1034,17 +1040,17 @@
       <c r="C11" s="2">
         <v>1992</v>
       </c>
-      <c r="D11" s="2">
-        <v>34</v>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3">
         <v>34700</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H11" s="2">
         <v>4724</v>
@@ -1053,25 +1059,25 @@
         <v>40371</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K11" s="2">
         <v>1992</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="4">
+        <v>35</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="4">
         <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1084,17 +1090,17 @@
       <c r="C12" s="2">
         <v>1937</v>
       </c>
-      <c r="D12" s="2">
-        <v>681</v>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3">
         <v>34700</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2">
         <v>18058</v>
@@ -1109,19 +1115,19 @@
         <v>1937</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="4">
+        <v>35</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="4">
         <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1134,17 +1140,17 @@
       <c r="C13" s="2">
         <v>1993</v>
       </c>
-      <c r="D13" s="2">
-        <v>13</v>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3">
         <v>34700</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H13" s="2">
         <v>4975</v>
@@ -1159,35 +1165,35 @@
         <v>1993</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="4">
+        <v>35</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="4">
         <v>0</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N10" r:id="rId9"/>
-    <hyperlink ref="N11" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
-    <hyperlink ref="N13" r:id="rId12"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
